--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Saves\CriticalPath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D5789-A104-4D6D-BB54-A404ADDDF036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49BB489-5D7A-442C-9D18-B6549617A79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Saves\CriticalPath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python3.8.1\Saves\CriticalPath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49BB489-5D7A-442C-9D18-B6549617A79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B88247-0A93-4FFF-8F13-39EE5FEF4E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -45,7 +45,46 @@
     <t>C</t>
   </si>
   <si>
-    <t>A,B</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t>E,H</t>
+  </si>
+  <si>
+    <t>F,I</t>
+  </si>
+  <si>
+    <t>I,G</t>
   </si>
 </sst>
 </file>
@@ -366,18 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,32 +427,168 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
